--- a/nmadb/479603.xlsx
+++ b/nmadb/479603.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7755"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,9 +26,6 @@
     <t>Treatments</t>
   </si>
   <si>
-    <t>Study id</t>
-  </si>
-  <si>
     <t>study year</t>
   </si>
   <si>
@@ -36,9 +33,6 @@
   </si>
   <si>
     <t>BENEFICIAL</t>
-  </si>
-  <si>
-    <t>tx</t>
   </si>
   <si>
     <t>r</t>
@@ -423,12 +417,18 @@
   <si>
     <t>Goadsby</t>
   </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1032,360 +1032,360 @@
     </xf>
   </cellXfs>
   <cellStyles count="355">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="354" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1402,7 +1402,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1476,7 +1476,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1511,7 +1510,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1687,14 +1685,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P173"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J171" sqref="J171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.42578125" style="28" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" style="28" bestFit="1" customWidth="1"/>
@@ -1709,40 +1707,40 @@
     <col min="13" max="13" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1">
       <c r="A1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>3</v>
-      </c>
       <c r="C1" s="25" t="s">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="D1" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="25" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>7</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J1" s="8"/>
     </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="15" customHeight="1" thickBot="1">
       <c r="A2" s="28">
         <v>1976</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" s="26">
         <v>1</v>
@@ -1759,7 +1757,10 @@
       <c r="G2" s="7"/>
       <c r="I2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
+      <c r="C3" s="26">
+        <v>1</v>
+      </c>
       <c r="D3" s="26">
         <v>2</v>
       </c>
@@ -1777,16 +1778,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="28">
         <v>2009</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C4" s="26">
         <v>2</v>
@@ -1806,11 +1807,14 @@
         <v>2</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
+      <c r="C5" s="26">
+        <v>2</v>
+      </c>
       <c r="D5" s="26">
         <v>4</v>
       </c>
@@ -1826,16 +1830,16 @@
         <v>3</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="28">
         <v>2007</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" s="26">
         <v>3</v>
@@ -1855,10 +1859,13 @@
         <v>4</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="C7" s="26">
+        <v>3</v>
+      </c>
       <c r="D7" s="26">
         <v>5</v>
       </c>
@@ -1874,15 +1881,15 @@
         <v>5</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="14.1" customHeight="1">
       <c r="A8" s="28">
         <v>2005</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8" s="26">
         <v>4</v>
@@ -1902,10 +1909,13 @@
         <v>6</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="C9" s="26">
+        <v>4</v>
+      </c>
       <c r="D9" s="26">
         <v>6</v>
       </c>
@@ -1921,15 +1931,15 @@
         <v>7</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="2" customFormat="1">
       <c r="A10" s="28">
         <v>1997</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" s="26">
         <v>5</v>
@@ -1949,10 +1959,13 @@
         <v>8</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="C11" s="26">
+        <v>5</v>
+      </c>
       <c r="D11" s="26">
         <v>2</v>
       </c>
@@ -1967,19 +1980,19 @@
         <v>9</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="10" customFormat="1">
       <c r="A12" s="28">
         <v>2008</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C12" s="26">
         <v>6</v>
@@ -1999,10 +2012,13 @@
         <v>10</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15" customHeight="1">
+      <c r="C13" s="26">
+        <v>6</v>
+      </c>
       <c r="D13" s="26">
         <v>8</v>
       </c>
@@ -2017,15 +2033,15 @@
         <v>11</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="4" customFormat="1">
       <c r="A14" s="28">
         <v>2008</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C14" s="26">
         <v>7</v>
@@ -2045,13 +2061,16 @@
         <v>12</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
+      <c r="C15" s="26">
+        <v>7</v>
+      </c>
       <c r="D15" s="26">
         <v>9</v>
       </c>
@@ -2066,15 +2085,15 @@
         <v>13</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="28">
         <v>2011</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C16" s="26">
         <v>8</v>
@@ -2093,10 +2112,13 @@
         <v>14</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="C17" s="26">
+        <v>8</v>
+      </c>
       <c r="D17" s="26">
         <v>10</v>
       </c>
@@ -2111,15 +2133,15 @@
         <v>15</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="28">
         <v>1985</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C18" s="26">
         <v>9</v>
@@ -2138,10 +2160,13 @@
         <v>16</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="C19" s="26">
+        <v>9</v>
+      </c>
       <c r="D19" s="26">
         <v>12</v>
       </c>
@@ -2156,15 +2181,15 @@
         <v>17</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="28">
         <v>1980</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C20" s="26">
         <v>10</v>
@@ -2183,10 +2208,13 @@
         <v>18</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="C21" s="26">
+        <v>10</v>
+      </c>
       <c r="D21" s="26">
         <v>12</v>
       </c>
@@ -2201,15 +2229,15 @@
         <v>19</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="28">
         <v>1987</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C22" s="26">
         <v>11</v>
@@ -2228,10 +2256,13 @@
         <v>20</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="C23" s="26">
+        <v>11</v>
+      </c>
       <c r="D23" s="26">
         <v>4</v>
       </c>
@@ -2246,15 +2277,15 @@
         <v>21</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C24" s="26">
         <v>12</v>
@@ -2273,10 +2304,13 @@
         <v>22</v>
       </c>
       <c r="J24" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="C25" s="26">
+        <v>12</v>
+      </c>
       <c r="D25" s="26">
         <v>13</v>
       </c>
@@ -2291,15 +2325,15 @@
         <v>23</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C26" s="26">
         <v>13</v>
@@ -2318,10 +2352,13 @@
         <v>24</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="C27" s="26">
+        <v>13</v>
+      </c>
       <c r="D27" s="26">
         <v>13</v>
       </c>
@@ -2336,15 +2373,15 @@
         <v>25</v>
       </c>
       <c r="J27" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="28">
         <v>2009</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C28" s="26">
         <v>14</v>
@@ -2363,10 +2400,13 @@
         <v>26</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="C29" s="26">
+        <v>14</v>
+      </c>
       <c r="D29" s="26">
         <v>14</v>
       </c>
@@ -2381,15 +2421,15 @@
         <v>27</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="28">
         <v>1984</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C30" s="26">
         <v>15</v>
@@ -2408,10 +2448,13 @@
         <v>28</v>
       </c>
       <c r="J30" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="C31" s="26">
+        <v>15</v>
+      </c>
       <c r="D31" s="26">
         <v>11</v>
       </c>
@@ -2426,15 +2469,15 @@
         <v>29</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="28">
         <v>1991</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C32" s="26">
         <v>16</v>
@@ -2453,10 +2496,13 @@
         <v>30</v>
       </c>
       <c r="J32" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="C33" s="26">
+        <v>16</v>
+      </c>
       <c r="D33" s="26">
         <v>11</v>
       </c>
@@ -2471,10 +2517,13 @@
         <v>31</v>
       </c>
       <c r="J33" s="18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="C34" s="26">
+        <v>16</v>
+      </c>
       <c r="D34" s="26">
         <v>15</v>
       </c>
@@ -2489,15 +2538,15 @@
         <v>32</v>
       </c>
       <c r="J34" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="28" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="28" t="s">
-        <v>54</v>
-      </c>
       <c r="B35" s="28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C35" s="26">
         <v>17</v>
@@ -2516,10 +2565,13 @@
         <v>33</v>
       </c>
       <c r="J35" s="18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="C36" s="26">
+        <v>17</v>
+      </c>
       <c r="D36" s="26">
         <v>16</v>
       </c>
@@ -2534,15 +2586,15 @@
         <v>34</v>
       </c>
       <c r="J36" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="28">
         <v>1987</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C37" s="26">
         <v>18</v>
@@ -2561,10 +2613,13 @@
         <v>35</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="C38" s="26">
+        <v>18</v>
+      </c>
       <c r="D38" s="26">
         <v>16</v>
       </c>
@@ -2579,15 +2634,15 @@
         <v>36</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="28">
         <v>1989</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C39" s="26">
         <v>19</v>
@@ -2606,10 +2661,13 @@
         <v>37</v>
       </c>
       <c r="J39" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="C40" s="26">
+        <v>19</v>
+      </c>
       <c r="D40" s="26">
         <v>15</v>
       </c>
@@ -2624,15 +2682,15 @@
         <v>38</v>
       </c>
       <c r="J40" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="28">
         <v>1986</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C41" s="26">
         <v>20</v>
@@ -2651,10 +2709,13 @@
         <v>39</v>
       </c>
       <c r="J41" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="C42" s="26">
+        <v>20</v>
+      </c>
       <c r="D42" s="26">
         <v>8</v>
       </c>
@@ -2669,15 +2730,15 @@
         <v>40</v>
       </c>
       <c r="J42" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="28">
         <v>1990</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C43" s="26">
         <v>21</v>
@@ -2696,10 +2757,13 @@
         <v>41</v>
       </c>
       <c r="J43" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="C44" s="26">
+        <v>21</v>
+      </c>
       <c r="D44" s="26">
         <v>11</v>
       </c>
@@ -2714,15 +2778,15 @@
         <v>42</v>
       </c>
       <c r="J44" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="28">
         <v>2001</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C45" s="26">
         <v>22</v>
@@ -2741,10 +2805,13 @@
         <v>43</v>
       </c>
       <c r="J45" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="C46" s="26">
+        <v>22</v>
+      </c>
       <c r="D46" s="26">
         <v>11</v>
       </c>
@@ -2759,15 +2826,15 @@
         <v>44</v>
       </c>
       <c r="J46" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" thickBot="1">
       <c r="A47" s="28">
         <v>1987</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C47" s="26">
         <v>23</v>
@@ -2786,10 +2853,13 @@
         <v>45</v>
       </c>
       <c r="J47" s="24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="C48" s="26">
         <v>23</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D48" s="26">
         <v>18</v>
       </c>
@@ -2803,12 +2873,12 @@
       <c r="I48" s="11"/>
       <c r="J48" s="11"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10">
       <c r="A49" s="28">
         <v>2001</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C49" s="26">
         <v>24</v>
@@ -2825,7 +2895,10 @@
       <c r="H49" s="2"/>
       <c r="I49" s="11"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
+      <c r="C50" s="26">
+        <v>24</v>
+      </c>
       <c r="D50" s="26">
         <v>19</v>
       </c>
@@ -2839,12 +2912,12 @@
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="A51" s="28">
         <v>1976</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C51" s="26">
         <v>25</v>
@@ -2861,7 +2934,10 @@
       <c r="H51" s="2"/>
       <c r="I51" s="11"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
+      <c r="C52" s="26">
+        <v>25</v>
+      </c>
       <c r="D52" s="26">
         <v>12</v>
       </c>
@@ -2875,12 +2951,12 @@
       <c r="I52" s="11"/>
       <c r="J52" s="11"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10">
       <c r="A53" s="28">
         <v>1979</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C53" s="26">
         <v>26</v>
@@ -2897,7 +2973,10 @@
       <c r="H53" s="2"/>
       <c r="I53" s="11"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
+      <c r="C54" s="26">
+        <v>26</v>
+      </c>
       <c r="D54" s="26">
         <v>4</v>
       </c>
@@ -2910,12 +2989,12 @@
       <c r="H54" s="2"/>
       <c r="I54" s="11"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="A55" s="28">
         <v>2011</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C55" s="26">
         <v>27</v>
@@ -2932,7 +3011,10 @@
       <c r="H55" s="2"/>
       <c r="I55" s="11"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
+      <c r="C56" s="26">
+        <v>27</v>
+      </c>
       <c r="D56" s="26">
         <v>4</v>
       </c>
@@ -2945,12 +3027,12 @@
       <c r="H56" s="2"/>
       <c r="I56" s="11"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="A57" s="28">
         <v>1976</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C57" s="26">
         <v>28</v>
@@ -2967,7 +3049,10 @@
       <c r="H57" s="10"/>
       <c r="I57" s="11"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
+      <c r="C58" s="26">
+        <v>28</v>
+      </c>
       <c r="D58" s="26">
         <v>4</v>
       </c>
@@ -2980,12 +3065,12 @@
       <c r="H58" s="10"/>
       <c r="I58" s="11"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="A59" s="28">
         <v>1992</v>
       </c>
       <c r="B59" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C59" s="26">
         <v>29</v>
@@ -3002,7 +3087,10 @@
       <c r="H59" s="10"/>
       <c r="I59" s="11"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
+      <c r="C60" s="26">
+        <v>29</v>
+      </c>
       <c r="D60" s="26">
         <v>20</v>
       </c>
@@ -3015,12 +3103,12 @@
       <c r="H60" s="10"/>
       <c r="I60" s="11"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="A61" s="28">
         <v>2005</v>
       </c>
       <c r="B61" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C61" s="26">
         <v>30</v>
@@ -3037,7 +3125,10 @@
       <c r="H61" s="10"/>
       <c r="I61" s="11"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
+      <c r="C62" s="26">
+        <v>30</v>
+      </c>
       <c r="D62" s="26">
         <v>21</v>
       </c>
@@ -3050,12 +3141,12 @@
       <c r="H62" s="10"/>
       <c r="I62" s="11"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10">
       <c r="A63" s="28">
         <v>2002</v>
       </c>
       <c r="B63" s="28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C63" s="26">
         <v>31</v>
@@ -3072,7 +3163,10 @@
       <c r="H63" s="10"/>
       <c r="I63" s="11"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10">
+      <c r="C64" s="26">
+        <v>31</v>
+      </c>
       <c r="D64" s="26">
         <v>22</v>
       </c>
@@ -3085,12 +3179,12 @@
       <c r="H64" s="10"/>
       <c r="I64" s="11"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" s="28">
         <v>1970</v>
       </c>
       <c r="B65" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C65" s="26">
         <v>32</v>
@@ -3107,7 +3201,10 @@
       <c r="H65" s="10"/>
       <c r="I65" s="11"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
+      <c r="C66" s="26">
+        <v>32</v>
+      </c>
       <c r="D66" s="26">
         <v>23</v>
       </c>
@@ -3120,12 +3217,12 @@
       <c r="H66" s="10"/>
       <c r="I66" s="11"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" s="28">
         <v>1995</v>
       </c>
       <c r="B67" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C67" s="26">
         <v>33</v>
@@ -3142,7 +3239,10 @@
       <c r="H67" s="10"/>
       <c r="I67" s="11"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
+      <c r="C68" s="26">
+        <v>33</v>
+      </c>
       <c r="D68" s="26">
         <v>7</v>
       </c>
@@ -3155,12 +3255,12 @@
       <c r="H68" s="10"/>
       <c r="I68" s="11"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" s="28">
         <v>1997</v>
       </c>
       <c r="B69" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C69" s="26">
         <v>34</v>
@@ -3177,7 +3277,10 @@
       <c r="H69" s="10"/>
       <c r="I69" s="11"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
+      <c r="C70" s="26">
+        <v>34</v>
+      </c>
       <c r="D70" s="26">
         <v>7</v>
       </c>
@@ -3190,12 +3293,12 @@
       <c r="H70" s="10"/>
       <c r="I70" s="11"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" s="28">
         <v>2002</v>
       </c>
       <c r="B71" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C71" s="26">
         <v>35</v>
@@ -3212,7 +3315,10 @@
       <c r="H71" s="10"/>
       <c r="I71" s="11"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
+      <c r="C72" s="26">
+        <v>35</v>
+      </c>
       <c r="D72" s="26">
         <v>7</v>
       </c>
@@ -3225,12 +3331,12 @@
       <c r="H72" s="10"/>
       <c r="I72" s="11"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" s="28">
         <v>1987</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C73" s="26">
         <v>36</v>
@@ -3247,7 +3353,10 @@
       <c r="H73" s="10"/>
       <c r="I73" s="11"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
+      <c r="C74" s="26">
+        <v>36</v>
+      </c>
       <c r="D74" s="26">
         <v>24</v>
       </c>
@@ -3260,12 +3369,12 @@
       <c r="H74" s="10"/>
       <c r="I74" s="11"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" s="28">
         <v>2001</v>
       </c>
       <c r="B75" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C75" s="26">
         <v>37</v>
@@ -3282,7 +3391,10 @@
       <c r="H75" s="10"/>
       <c r="I75" s="11"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
+      <c r="C76" s="26">
+        <v>37</v>
+      </c>
       <c r="D76" s="26">
         <v>24</v>
       </c>
@@ -3295,12 +3407,12 @@
       <c r="H76" s="10"/>
       <c r="I76" s="11"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" s="28">
         <v>2010</v>
       </c>
       <c r="B77" s="28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C77" s="26">
         <v>38</v>
@@ -3317,7 +3429,10 @@
       <c r="H77" s="10"/>
       <c r="I77" s="11"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
+      <c r="C78" s="26">
+        <v>38</v>
+      </c>
       <c r="D78" s="26">
         <v>24</v>
       </c>
@@ -3330,12 +3445,12 @@
       <c r="H78" s="10"/>
       <c r="I78" s="11"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" s="28">
         <v>2008</v>
       </c>
       <c r="B79" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C79" s="26">
         <v>39</v>
@@ -3352,7 +3467,10 @@
       <c r="H79" s="10"/>
       <c r="I79" s="11"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
+      <c r="C80" s="26">
+        <v>39</v>
+      </c>
       <c r="D80" s="26">
         <v>25</v>
       </c>
@@ -3365,12 +3483,12 @@
       <c r="H80" s="10"/>
       <c r="I80" s="11"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="A81" s="28">
         <v>1994</v>
       </c>
       <c r="B81" s="28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C81" s="26">
         <v>40</v>
@@ -3387,7 +3505,10 @@
       <c r="H81" s="10"/>
       <c r="I81" s="12"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
+      <c r="C82" s="26">
+        <v>40</v>
+      </c>
       <c r="D82" s="26">
         <v>6</v>
       </c>
@@ -3400,12 +3521,12 @@
       <c r="H82" s="10"/>
       <c r="I82" s="11"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9">
       <c r="A83" s="28">
         <v>2007</v>
       </c>
       <c r="B83" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C83" s="26">
         <v>41</v>
@@ -3422,7 +3543,10 @@
       <c r="H83" s="10"/>
       <c r="I83" s="11"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
+      <c r="C84" s="26">
+        <v>41</v>
+      </c>
       <c r="D84" s="26">
         <v>3</v>
       </c>
@@ -3435,12 +3559,12 @@
       <c r="H84" s="10"/>
       <c r="I84" s="11"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9">
       <c r="A85" s="28">
         <v>2007</v>
       </c>
       <c r="B85" s="28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C85" s="26">
         <v>42</v>
@@ -3457,7 +3581,10 @@
       <c r="H85" s="10"/>
       <c r="I85" s="11"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9">
+      <c r="C86" s="26">
+        <v>42</v>
+      </c>
       <c r="D86" s="26">
         <v>3</v>
       </c>
@@ -3470,12 +3597,12 @@
       <c r="H86" s="10"/>
       <c r="I86" s="11"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9">
       <c r="A87" s="28">
         <v>2009</v>
       </c>
       <c r="B87" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C87" s="26">
         <v>43</v>
@@ -3492,7 +3619,10 @@
       <c r="H87" s="10"/>
       <c r="I87" s="11"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9">
+      <c r="C88" s="26">
+        <v>43</v>
+      </c>
       <c r="D88" s="26">
         <v>3</v>
       </c>
@@ -3505,12 +3635,12 @@
       <c r="H88" s="10"/>
       <c r="I88" s="11"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9">
       <c r="A89" s="28">
         <v>2001</v>
       </c>
       <c r="B89" s="28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C89" s="26">
         <v>44</v>
@@ -3527,7 +3657,10 @@
       <c r="H89" s="10"/>
       <c r="I89" s="11"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9">
+      <c r="C90" s="26">
+        <v>44</v>
+      </c>
       <c r="D90" s="26">
         <v>3</v>
       </c>
@@ -3540,12 +3673,12 @@
       <c r="H90" s="10"/>
       <c r="I90" s="11"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9">
       <c r="A91" s="28">
         <v>2003</v>
       </c>
       <c r="B91" s="28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C91" s="26">
         <v>45</v>
@@ -3562,7 +3695,10 @@
       <c r="H91" s="10"/>
       <c r="I91" s="11"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9">
+      <c r="C92" s="26">
+        <v>45</v>
+      </c>
       <c r="D92" s="26">
         <v>3</v>
       </c>
@@ -3575,12 +3711,12 @@
       <c r="H92" s="10"/>
       <c r="I92" s="11"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9">
       <c r="A93" s="28">
         <v>2004</v>
       </c>
       <c r="B93" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C93" s="26">
         <v>46</v>
@@ -3595,7 +3731,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9">
+      <c r="C94" s="26">
+        <v>46</v>
+      </c>
       <c r="D94" s="26">
         <v>3</v>
       </c>
@@ -3606,12 +3745,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9">
       <c r="A95" s="28">
         <v>2005</v>
       </c>
       <c r="B95" s="28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C95" s="26">
         <v>47</v>
@@ -3626,7 +3765,10 @@
         <v>372</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9">
+      <c r="C96" s="26">
+        <v>47</v>
+      </c>
       <c r="D96" s="26">
         <v>3</v>
       </c>
@@ -3637,12 +3779,12 @@
         <v>386</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6">
       <c r="A97" s="28">
         <v>2006</v>
       </c>
       <c r="B97" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C97" s="26">
         <v>48</v>
@@ -3657,7 +3799,10 @@
         <v>73</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6">
+      <c r="C98" s="26">
+        <v>48</v>
+      </c>
       <c r="D98" s="26">
         <v>3</v>
       </c>
@@ -3668,12 +3813,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6">
       <c r="A99" s="28">
         <v>2007</v>
       </c>
       <c r="B99" s="28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C99" s="26">
         <v>49</v>
@@ -3688,7 +3833,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6">
+      <c r="C100" s="26">
+        <v>49</v>
+      </c>
       <c r="D100" s="26">
         <v>3</v>
       </c>
@@ -3699,12 +3847,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6">
       <c r="A101" s="28">
         <v>2004</v>
       </c>
       <c r="B101" s="28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C101" s="26">
         <v>50</v>
@@ -3719,7 +3867,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6">
+      <c r="C102" s="26">
+        <v>50</v>
+      </c>
       <c r="D102" s="26">
         <v>3</v>
       </c>
@@ -3730,7 +3881,10 @@
         <v>144</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6">
+      <c r="C103" s="26">
+        <v>50</v>
+      </c>
       <c r="D103" s="26">
         <v>2</v>
       </c>
@@ -3741,12 +3895,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6">
       <c r="A104" s="28">
         <v>2007</v>
       </c>
       <c r="B104" s="28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C104" s="26">
         <v>51</v>
@@ -3761,7 +3915,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6">
+      <c r="C105" s="26">
+        <v>51</v>
+      </c>
       <c r="D105" s="26">
         <v>3</v>
       </c>
@@ -3772,7 +3929,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6">
+      <c r="C106" s="26">
+        <v>51</v>
+      </c>
       <c r="D106" s="26">
         <v>26</v>
       </c>
@@ -3783,12 +3943,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6">
       <c r="A107" s="28">
         <v>2003</v>
       </c>
       <c r="B107" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C107" s="26">
         <v>52</v>
@@ -3803,7 +3963,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6">
+      <c r="C108" s="26">
+        <v>52</v>
+      </c>
       <c r="D108" s="26">
         <v>27</v>
       </c>
@@ -3814,12 +3977,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6">
       <c r="A109" s="28">
         <v>2009</v>
       </c>
       <c r="B109" s="28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C109" s="26">
         <v>53</v>
@@ -3834,7 +3997,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6">
+      <c r="C110" s="26">
+        <v>53</v>
+      </c>
       <c r="D110" s="26">
         <v>28</v>
       </c>
@@ -3845,12 +4011,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6">
       <c r="A111" s="28">
         <v>1978</v>
       </c>
       <c r="B111" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C111" s="26">
         <v>54</v>
@@ -3865,7 +4031,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6">
+      <c r="C112" s="26">
+        <v>54</v>
+      </c>
       <c r="D112" s="26">
         <v>29</v>
       </c>
@@ -3876,12 +4045,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6">
       <c r="A113" s="28">
         <v>1975</v>
       </c>
       <c r="B113" s="28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C113" s="26">
         <v>55</v>
@@ -3896,7 +4065,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6">
+      <c r="C114" s="26">
+        <v>55</v>
+      </c>
       <c r="D114" s="26">
         <v>30</v>
       </c>
@@ -3907,12 +4079,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6">
       <c r="A115" s="28">
         <v>1982</v>
       </c>
       <c r="B115" s="28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C115" s="26">
         <v>56</v>
@@ -3927,7 +4099,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6">
+      <c r="C116" s="26">
+        <v>56</v>
+      </c>
       <c r="D116" s="26">
         <v>31</v>
       </c>
@@ -3938,12 +4113,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6">
       <c r="A117" s="28">
         <v>1987</v>
       </c>
       <c r="B117" s="28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C117" s="26">
         <v>57</v>
@@ -3958,7 +4133,10 @@
         <v>77</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6">
+      <c r="C118" s="26">
+        <v>57</v>
+      </c>
       <c r="D118" s="26">
         <v>11</v>
       </c>
@@ -3969,12 +4147,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6">
       <c r="A119" s="28">
         <v>1983</v>
       </c>
       <c r="B119" s="28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C119" s="26">
         <v>58</v>
@@ -3989,7 +4167,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6">
+      <c r="C120" s="26">
+        <v>58</v>
+      </c>
       <c r="D120" s="26">
         <v>11</v>
       </c>
@@ -4000,12 +4181,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6">
       <c r="A121" s="28">
         <v>1984</v>
       </c>
       <c r="B121" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C121" s="26">
         <v>59</v>
@@ -4020,7 +4201,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6">
+      <c r="C122" s="26">
+        <v>59</v>
+      </c>
       <c r="D122" s="26">
         <v>16</v>
       </c>
@@ -4031,12 +4215,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6">
       <c r="A123" s="28">
         <v>1972</v>
       </c>
       <c r="B123" s="28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C123" s="26">
         <v>60</v>
@@ -4051,7 +4235,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6">
+      <c r="C124" s="26">
+        <v>60</v>
+      </c>
       <c r="D124" s="26">
         <v>32</v>
       </c>
@@ -4062,12 +4249,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6">
       <c r="A125" s="28">
         <v>1977</v>
       </c>
       <c r="B125" s="28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C125" s="26">
         <v>61</v>
@@ -4082,7 +4269,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6">
+      <c r="C126" s="26">
+        <v>61</v>
+      </c>
       <c r="D126" s="26">
         <v>33</v>
       </c>
@@ -4093,7 +4283,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6">
+      <c r="C127" s="26">
+        <v>61</v>
+      </c>
       <c r="D127" s="26">
         <v>12</v>
       </c>
@@ -4104,12 +4297,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6">
       <c r="A128" s="28">
         <v>1984</v>
       </c>
       <c r="B128" s="28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C128" s="26">
         <v>62</v>
@@ -4124,7 +4317,10 @@
         <v>48</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6">
+      <c r="C129" s="26">
+        <v>62</v>
+      </c>
       <c r="D129" s="26">
         <v>2</v>
       </c>
@@ -4135,7 +4331,10 @@
         <v>96</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6">
+      <c r="C130" s="26">
+        <v>62</v>
+      </c>
       <c r="D130" s="26">
         <v>34</v>
       </c>
@@ -4146,12 +4345,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6">
       <c r="A131" s="28">
         <v>1972</v>
       </c>
       <c r="B131" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C131" s="26">
         <v>63</v>
@@ -4166,7 +4365,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6">
+      <c r="C132" s="26">
+        <v>63</v>
+      </c>
       <c r="D132" s="26">
         <v>2</v>
       </c>
@@ -4177,12 +4379,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6">
       <c r="A133" s="28">
         <v>1982</v>
       </c>
       <c r="B133" s="28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C133" s="26">
         <v>64</v>
@@ -4197,7 +4399,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6">
+      <c r="C134" s="26">
+        <v>64</v>
+      </c>
       <c r="D134" s="26">
         <v>2</v>
       </c>
@@ -4208,7 +4413,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6">
+      <c r="C135" s="26">
+        <v>64</v>
+      </c>
       <c r="D135" s="26">
         <v>34</v>
       </c>
@@ -4219,12 +4427,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6">
       <c r="A136" s="28">
         <v>2010</v>
       </c>
       <c r="B136" s="28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C136" s="26">
         <v>65</v>
@@ -4239,7 +4447,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6">
+      <c r="C137" s="26">
+        <v>65</v>
+      </c>
       <c r="D137" s="26">
         <v>2</v>
       </c>
@@ -4250,12 +4461,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6">
       <c r="A138" s="28">
         <v>1979</v>
       </c>
       <c r="B138" s="28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C138" s="26">
         <v>66</v>
@@ -4270,7 +4481,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6">
+      <c r="C139" s="26">
+        <v>66</v>
+      </c>
       <c r="D139" s="26">
         <v>34</v>
       </c>
@@ -4281,12 +4495,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6">
       <c r="A140" s="28">
         <v>1984</v>
       </c>
       <c r="B140" s="28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C140" s="26">
         <v>67</v>
@@ -4301,7 +4515,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6">
+      <c r="C141" s="26">
+        <v>67</v>
+      </c>
       <c r="D141" s="26">
         <v>34</v>
       </c>
@@ -4312,12 +4529,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6">
       <c r="A142" s="28">
         <v>1995</v>
       </c>
       <c r="B142" s="28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C142" s="26">
         <v>68</v>
@@ -4332,7 +4549,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6">
+      <c r="C143" s="26">
+        <v>68</v>
+      </c>
       <c r="D143" s="26">
         <v>15</v>
       </c>
@@ -4343,12 +4563,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6">
       <c r="A144" s="28">
         <v>1985</v>
       </c>
       <c r="B144" s="28" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C144" s="26">
         <v>69</v>
@@ -4363,7 +4583,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6">
+      <c r="C145" s="26">
+        <v>69</v>
+      </c>
       <c r="D145" s="26">
         <v>35</v>
       </c>
@@ -4374,12 +4597,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6">
       <c r="A146" s="28">
         <v>1983</v>
       </c>
       <c r="B146" s="28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C146" s="26">
         <v>70</v>
@@ -4394,7 +4617,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6">
+      <c r="C147" s="26">
+        <v>70</v>
+      </c>
       <c r="D147" s="26">
         <v>35</v>
       </c>
@@ -4405,12 +4631,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6">
       <c r="A148" s="28">
         <v>2004</v>
       </c>
       <c r="B148" s="28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C148" s="26">
         <v>71</v>
@@ -4425,7 +4651,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6">
+      <c r="C149" s="26">
+        <v>71</v>
+      </c>
       <c r="D149" s="26">
         <v>36</v>
       </c>
@@ -4436,12 +4665,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6">
       <c r="A150" s="28">
         <v>1976</v>
       </c>
       <c r="B150" s="28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C150" s="26">
         <v>72</v>
@@ -4456,7 +4685,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6">
+      <c r="C151" s="26">
+        <v>72</v>
+      </c>
       <c r="D151" s="26">
         <v>37</v>
       </c>
@@ -4467,12 +4699,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6">
       <c r="A152" s="28">
         <v>1996</v>
       </c>
       <c r="B152" s="28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C152" s="26">
         <v>73</v>
@@ -4487,7 +4719,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6">
+      <c r="C153" s="26">
+        <v>73</v>
+      </c>
       <c r="D153" s="26">
         <v>38</v>
       </c>
@@ -4498,12 +4733,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6">
       <c r="A154" s="28">
         <v>1996</v>
       </c>
       <c r="B154" s="28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C154" s="26">
         <v>74</v>
@@ -4518,7 +4753,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6">
+      <c r="C155" s="26">
+        <v>74</v>
+      </c>
       <c r="D155" s="26">
         <v>38</v>
       </c>
@@ -4529,12 +4767,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6">
       <c r="A156" s="28">
         <v>1990</v>
       </c>
       <c r="B156" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C156" s="26">
         <v>75</v>
@@ -4549,7 +4787,10 @@
         <v>11034</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6">
+      <c r="C157" s="26">
+        <v>75</v>
+      </c>
       <c r="D157" s="26">
         <v>17</v>
       </c>
@@ -4560,12 +4801,12 @@
         <v>11037</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6">
       <c r="A158" s="28">
         <v>1980</v>
       </c>
       <c r="B158" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C158" s="26">
         <v>76</v>
@@ -4580,7 +4821,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6">
+      <c r="C159" s="26">
+        <v>76</v>
+      </c>
       <c r="D159" s="26">
         <v>17</v>
       </c>
@@ -4591,12 +4835,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6">
       <c r="A160" s="28">
         <v>1987</v>
       </c>
       <c r="B160" s="28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C160" s="26">
         <v>77</v>
@@ -4611,7 +4855,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6">
+      <c r="C161" s="26">
+        <v>77</v>
+      </c>
       <c r="D161" s="26">
         <v>39</v>
       </c>
@@ -4622,12 +4869,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6">
       <c r="A162" s="28">
         <v>1993</v>
       </c>
       <c r="B162" s="28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C162" s="26">
         <v>78</v>
@@ -4642,7 +4889,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6">
+      <c r="C163" s="26">
+        <v>78</v>
+      </c>
       <c r="D163" s="26">
         <v>40</v>
       </c>
@@ -4653,12 +4903,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6">
       <c r="A164" s="28">
         <v>1968</v>
       </c>
       <c r="B164" s="28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C164" s="26">
         <v>79</v>
@@ -4673,7 +4923,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6">
+      <c r="C165" s="26">
+        <v>79</v>
+      </c>
       <c r="D165" s="26">
         <v>41</v>
       </c>
@@ -4684,12 +4937,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6">
       <c r="A166" s="28">
         <v>2004</v>
       </c>
       <c r="B166" s="28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C166" s="26">
         <v>80</v>
@@ -4704,7 +4957,10 @@
         <v>84</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6">
+      <c r="C167" s="26">
+        <v>80</v>
+      </c>
       <c r="D167" s="26">
         <v>42</v>
       </c>
@@ -4715,12 +4971,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6">
       <c r="A168" s="28">
         <v>1982</v>
       </c>
       <c r="B168" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C168" s="26">
         <v>81</v>
@@ -4735,7 +4991,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6">
+      <c r="C169" s="26">
+        <v>81</v>
+      </c>
       <c r="D169" s="26">
         <v>43</v>
       </c>
@@ -4746,12 +5005,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6">
       <c r="A170" s="28">
         <v>2004</v>
       </c>
       <c r="B170" s="28" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C170" s="26">
         <v>82</v>
@@ -4766,7 +5025,10 @@
         <v>84</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6">
+      <c r="C171" s="26">
+        <v>82</v>
+      </c>
       <c r="D171" s="26">
         <v>44</v>
       </c>
@@ -4777,12 +5039,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6">
       <c r="A172" s="28">
         <v>2009</v>
       </c>
       <c r="B172" s="28" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C172" s="26">
         <v>83</v>
@@ -4797,7 +5059,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6">
+      <c r="C173" s="26">
+        <v>83</v>
+      </c>
       <c r="D173" s="26">
         <v>45</v>
       </c>
@@ -4820,12 +5085,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -4837,12 +5102,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
